--- a/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="211">
   <si>
     <t>No</t>
   </si>
@@ -734,36 +734,6 @@
     <t xml:space="preserve">Sort Clients </t>
   </si>
   <si>
-    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Client Name Header to sort the names (descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending to ascending order) </t>
-  </si>
-  <si>
-    <t>Click on Date of birth  sort the clients in ascending to descending order</t>
-  </si>
-  <si>
-    <t>Click on Date of birth sort the clients in descending to ascending order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in descending to ascending order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in ascending to descending order</t>
-  </si>
-  <si>
     <t>Clients' name are sorted in ascending order (A-Z)</t>
   </si>
   <si>
@@ -852,6 +822,147 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Search for client name Adrian Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Client's Appointment </t>
+  </si>
+  <si>
+    <t>In appointment page, click on view appointments for Adrian Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainDiagnosis: US Emb 
+Appointment: 12/10/2015 10:30
+Doctor: Francis Wong Yoke Hae
+Speciality: Surgery - Orthopaedics 
+Clinic : Orthopaedics International
+Hospital Admitted: - 
+MainDiagnosis: US Emb 
+Appointment: 13/10/2015 02:30
+Doctor: Vera Oh Boon Ngee
+Speciality: Paediatrics 
+Clinic : SBCC Baby &amp; Child Clinic Pte Ltd
+Hospital Admitted: -
+MainDiagnosis: US Emb 
+Appointment: 13/10/2015 09:30
+Doctor: Francis Fong Kee Siew
+Speciality: Surgery - Eye 
+Clinic: Eye Surgeons @ Novena
+Hospital Admitted: -
+</t>
+  </si>
+  <si>
+    <t>Search for client name Acep Dani Nuraeni</t>
+  </si>
+  <si>
+    <t>In appointment page, click on view appointments for Acep Dani Nuraeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainDiagnosis: IndoMed
+Appointment: 01/10/2015 02:00
+Doctor: Ho Siew Hong
+Speciality: Surgery - Urology
+Clinic : S H Ho Urology And Laparoscopy Centre
+Hospital Admitted: - 
+MainDiagnosis: IndoMed 
+Appointment: 22/02/2016 02:45
+Doctor: Dede Selamat Sutedja 
+Speciality: Medicine - Gastroenterology
+Clinic : The Singapore Gastro Liver Internist Centre
+Hospital Admitted: Gleneagles Hospital
+MainDiagnosis: IndoMed
+Appointment: 23/02/2016 02:45
+Doctor: Chan Hsiang Sui
+Speciality: Surgery - General 
+Clinic: H S Chan Surgery Pte Ltd
+Hospital Admitted: Gleneagles Hospital
+MainDiagnosis: IndoMed
+Appointment: 25/10/2016 15:00
+Doctor: Dede Selamat Sutedja 
+Speciality: Medicine - Gastroenterology
+Clinic: The Singapore Gastro LIver Internist Centre
+Hospital Admitted: - 
+</t>
+  </si>
+  <si>
+    <t>Client Name: Acep Dani Nuraeni
+Client Owner: Medical1
+Nationality: Indonesian
+Gender: Male
+DOB: 15/06/1982
+Age: 34
+Company:  
+Email: Acep Dani Nuraeni @hotmail.com
+Person-in-Charge: Zin
+Referred by: IndoMed</t>
+  </si>
+  <si>
+    <t>Click on Client Type to sort the client's type in descending order</t>
+  </si>
+  <si>
+    <t>Click on Client Type to sort the client's type in ascending order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending order) </t>
+  </si>
+  <si>
+    <t>Click on Date of birth  sort the clients in ascending order</t>
+  </si>
+  <si>
+    <t>Click on Date of birth sort the clients in descending  order</t>
+  </si>
+  <si>
+    <t>Click on referred by to sort the referrals' name in ascending order</t>
+  </si>
+  <si>
+    <t>Click on referred by to sort the referrals' name in descending order</t>
+  </si>
+  <si>
+    <t>Click on Visa/Medical to sort client base on type ( Visa  - Medical )</t>
+  </si>
+  <si>
+    <t>Click on Visa/Medical to sort client base on type ( Medical - Visa )</t>
+  </si>
+  <si>
+    <t>Clients are sorted base on Client type in ascending order (Employee - Individual)</t>
+  </si>
+  <si>
+    <t>Clients are sorted base on Client type in descending order (Individual - Employee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clients are sorted in ascending order (Medical - Visa) </t>
+  </si>
+  <si>
+    <t>Clients are sorted in descending order (Visa - Medical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Adrian Hall
+Client Owner: Medical1
+Nationality: American
+Gender: Male
+DOB: 03/11/2001
+Age: 15
+Company: - 
+Email: Adrain Hall@hotmail.com
+Person-in-Charge: Zin
+Referred by: US Emb </t>
   </si>
 </sst>
 </file>
@@ -3962,7 +4073,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3978,10 +4089,10 @@
         <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4092,10 +4203,10 @@
         <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -4233,7 +4344,7 @@
         <v>141</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>103</v>
@@ -4247,7 +4358,7 @@
         <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>103</v>
@@ -4328,13 +4439,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -4342,13 +4453,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4356,13 +4467,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4375,7 +4486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4421,10 +4532,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -4441,10 +4552,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -4461,10 +4572,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -4481,10 +4592,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -4501,10 +4612,10 @@
         <v>56</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -4521,10 +4632,10 @@
         <v>59</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -4541,10 +4652,10 @@
         <v>62</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -4561,10 +4672,10 @@
         <v>65</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -4581,10 +4692,10 @@
         <v>67</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
@@ -4601,10 +4712,10 @@
         <v>69</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
@@ -4621,10 +4732,10 @@
         <v>71</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4634,10 +4745,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4677,10 +4788,10 @@
         <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -4692,14 +4803,14 @@
         <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4707,14 +4818,14 @@
         <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4722,10 +4833,10 @@
         <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4737,10 +4848,10 @@
         <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4752,10 +4863,10 @@
         <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4767,10 +4878,10 @@
         <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -4782,10 +4893,10 @@
         <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4797,10 +4908,10 @@
         <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -4812,10 +4923,10 @@
         <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -4824,130 +4935,194 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+    <row r="17" spans="1:5" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+    <row r="18" spans="1:5" ht="155" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -6248,6 +6423,30 @@
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
     </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="199">
   <si>
     <t>No</t>
   </si>
@@ -740,27 +740,6 @@
     <t>Clients' name are sorted in descending order (Z-A)</t>
   </si>
   <si>
-    <t>Nationality of clients are sorted in ascending order (A-Z)</t>
-  </si>
-  <si>
-    <t>Nationality of clients are sorted in descending order (Z-A)</t>
-  </si>
-  <si>
-    <t>Genders of clients are sorted in ascending order (Female - Infant - Male)</t>
-  </si>
-  <si>
-    <t>Genders of clients are sorted in descending order (Male - Infant - Female)</t>
-  </si>
-  <si>
-    <t>Clients are sorted base on date of birth</t>
-  </si>
-  <si>
-    <t>Referrals' name are sorted in ascending order (A-Z)</t>
-  </si>
-  <si>
-    <t>Referrals' name are sorted in descending order (Z-A)</t>
-  </si>
-  <si>
     <t>Verify that logged in user can access the link</t>
   </si>
   <si>
@@ -905,34 +884,10 @@
     <t>Click on Client Type to sort the client's type in ascending order</t>
   </si>
   <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending order) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on Client Name Header to sort the names (ascending order) </t>
   </si>
   <si>
     <t xml:space="preserve">Click on Client Name Header to sort the names (descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending order) </t>
-  </si>
-  <si>
-    <t>Click on Date of birth  sort the clients in ascending order</t>
-  </si>
-  <si>
-    <t>Click on Date of birth sort the clients in descending  order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in ascending order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in descending order</t>
   </si>
   <si>
     <t>Click on Visa/Medical to sort client base on type ( Visa  - Medical )</t>
@@ -963,6 +918,15 @@
 Email: Adrain Hall@hotmail.com
 Person-in-Charge: Zin
 Referred by: US Emb </t>
+  </si>
+  <si>
+    <t>Upload Correct File Format - Header Names are Wrong</t>
+  </si>
+  <si>
+    <t>testing0.1.xls</t>
+  </si>
+  <si>
+    <t>Data not relevant or any related message shown</t>
   </si>
 </sst>
 </file>
@@ -4073,7 +4037,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4089,10 +4053,10 @@
         <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4203,10 +4167,10 @@
         <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -4344,7 +4308,7 @@
         <v>141</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>103</v>
@@ -4358,7 +4322,7 @@
         <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>103</v>
@@ -4439,13 +4403,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -4453,13 +4417,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4467,13 +4431,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4484,10 +4448,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4532,10 +4496,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -4552,10 +4516,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -4572,10 +4536,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -4592,10 +4556,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -4612,10 +4576,10 @@
         <v>56</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -4632,10 +4596,10 @@
         <v>59</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -4652,10 +4616,10 @@
         <v>62</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -4672,10 +4636,10 @@
         <v>65</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -4692,10 +4656,10 @@
         <v>67</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
@@ -4712,10 +4676,10 @@
         <v>69</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
@@ -4732,10 +4696,24 @@
         <v>71</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4747,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4788,7 +4766,7 @@
         <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>158</v>
@@ -4803,7 +4781,7 @@
         <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>159</v>
@@ -4818,10 +4796,10 @@
         <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4833,10 +4811,10 @@
         <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4848,10 +4826,10 @@
         <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4863,191 +4841,125 @@
         <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>206</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>207</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>208</v>
-      </c>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>209</v>
-      </c>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="155" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>210</v>
-      </c>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="325.5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>187</v>
-      </c>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="155" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>191</v>
-      </c>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>190</v>
-      </c>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -5075,7 +4987,6 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5123,6 +5034,7 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -6400,51 +6312,27 @@
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
       <c r="E252" s="2"/>
     </row>
   </sheetData>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shu Yan\Desktop\Ulink\Test Cases\Iteration 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\FYP-GIT\Ulink\test cases\iteration 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="4875" yWindow="1425" windowWidth="25515" windowHeight="15540" tabRatio="674" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Bootstrap" sheetId="22" r:id="rId4"/>
     <sheet name="Clients" sheetId="24" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="204">
   <si>
     <t>No</t>
   </si>
@@ -927,6 +927,21 @@
   </si>
   <si>
     <t>Data not relevant or any related message shown</t>
+  </si>
+  <si>
+    <t>Upload File with existing record in database</t>
+  </si>
+  <si>
+    <t>Upload testing 7 then upload testing 8</t>
+  </si>
+  <si>
+    <t>Should not have duplicated records in database</t>
+  </si>
+  <si>
+    <t>Database not updated. But no error message shown.</t>
+  </si>
+  <si>
+    <t>Database updated on with new records.</t>
   </si>
 </sst>
 </file>
@@ -1852,16 +1867,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1901,7 +1916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1921,7 +1936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1929,7 +1944,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1937,7 +1952,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1945,7 +1960,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1953,7 +1968,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1961,7 +1976,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1969,7 +1984,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1977,7 +1992,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1985,7 +2000,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1993,7 +2008,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2001,7 +2016,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2009,7 +2024,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2017,7 +2032,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2025,7 +2040,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2033,7 +2048,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2041,7 +2056,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2049,7 +2064,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2057,7 +2072,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2065,7 +2080,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2073,7 +2088,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2081,7 +2096,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2089,7 +2104,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2097,7 +2112,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2118,17 +2133,17 @@
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2169,7 +2184,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2188,7 +2203,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2210,7 +2225,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2232,7 +2247,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2254,7 +2269,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2276,7 +2291,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2298,7 +2313,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2320,7 +2335,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2342,7 +2357,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2364,7 +2379,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2386,7 +2401,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2408,7 +2423,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2430,7 +2445,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2452,7 +2467,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2474,7 +2489,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2496,7 +2511,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2518,7 +2533,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2540,7 +2555,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2562,7 +2577,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2584,7 +2599,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2606,7 +2621,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2628,7 +2643,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2650,7 +2665,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2672,7 +2687,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2694,7 +2709,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2716,7 +2731,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2738,7 +2753,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="2"/>
@@ -2750,7 +2765,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
@@ -2762,7 +2777,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="2"/>
@@ -2774,7 +2789,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="2"/>
@@ -2786,7 +2801,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
@@ -2798,7 +2813,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="2"/>
@@ -2810,7 +2825,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="2"/>
@@ -2822,7 +2837,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="2"/>
@@ -2834,7 +2849,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
@@ -2846,7 +2861,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
@@ -2858,7 +2873,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
@@ -2870,7 +2885,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
@@ -2882,7 +2897,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -2894,7 +2909,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="2"/>
@@ -2906,7 +2921,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="2"/>
@@ -2918,7 +2933,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="2"/>
@@ -2930,7 +2945,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="2"/>
@@ -2942,7 +2957,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="2"/>
@@ -2954,7 +2969,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="2"/>
@@ -2966,7 +2981,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="2"/>
@@ -2978,7 +2993,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="2"/>
@@ -2990,7 +3005,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="2"/>
@@ -3002,7 +3017,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="2"/>
@@ -3014,7 +3029,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="2"/>
@@ -3026,7 +3041,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="2"/>
@@ -3038,7 +3053,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="5"/>
@@ -3049,7 +3064,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="5"/>
@@ -3060,7 +3075,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="5"/>
@@ -3071,7 +3086,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="5"/>
@@ -3082,7 +3097,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="5"/>
@@ -3093,7 +3108,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="5"/>
@@ -3104,7 +3119,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="5"/>
@@ -3115,7 +3130,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="5"/>
@@ -3126,7 +3141,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="5"/>
@@ -3137,7 +3152,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="5"/>
@@ -3148,7 +3163,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="5"/>
@@ -3159,7 +3174,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="5"/>
@@ -3170,7 +3185,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="5"/>
@@ -3181,7 +3196,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="5"/>
@@ -3192,7 +3207,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="5"/>
@@ -3203,7 +3218,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="5"/>
@@ -3214,7 +3229,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="5"/>
@@ -3225,7 +3240,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="5"/>
@@ -3236,7 +3251,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="5"/>
@@ -3247,7 +3262,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="5"/>
@@ -3258,7 +3273,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="5"/>
@@ -3269,7 +3284,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="5"/>
@@ -3280,7 +3295,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="5"/>
@@ -3291,7 +3306,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="5"/>
@@ -3302,7 +3317,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="5"/>
@@ -3313,7 +3328,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="5"/>
@@ -3324,7 +3339,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="5"/>
@@ -3335,7 +3350,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="5"/>
@@ -3346,7 +3361,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="5"/>
@@ -3357,7 +3372,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="5"/>
@@ -3368,7 +3383,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="5"/>
@@ -3379,7 +3394,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="5"/>
@@ -3390,7 +3405,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="5"/>
@@ -3401,7 +3416,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="5"/>
@@ -3412,7 +3427,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="5"/>
@@ -3423,7 +3438,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="5"/>
@@ -3434,7 +3449,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="5"/>
@@ -3445,7 +3460,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="5"/>
@@ -3456,7 +3471,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="5"/>
@@ -3467,7 +3482,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="5"/>
@@ -3478,7 +3493,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="5"/>
@@ -3489,7 +3504,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="5"/>
@@ -3500,7 +3515,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="5"/>
@@ -3511,7 +3526,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="5"/>
@@ -3522,7 +3537,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="5"/>
@@ -3533,7 +3548,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="5"/>
@@ -3544,7 +3559,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5"/>
@@ -3555,7 +3570,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="5"/>
@@ -3566,7 +3581,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="5"/>
@@ -3577,7 +3592,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="5"/>
@@ -3588,7 +3603,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="5"/>
@@ -3599,7 +3614,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="5"/>
@@ -3610,7 +3625,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="5"/>
@@ -3621,7 +3636,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="5"/>
@@ -3632,7 +3647,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="5"/>
@@ -3643,7 +3658,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="5"/>
@@ -3654,7 +3669,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="5"/>
@@ -3665,7 +3680,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="5"/>
@@ -3676,7 +3691,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="5"/>
@@ -3687,7 +3702,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="5"/>
@@ -3698,7 +3713,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="5"/>
@@ -3709,7 +3724,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="5"/>
@@ -3720,7 +3735,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="5"/>
@@ -3731,7 +3746,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="5"/>
@@ -3742,7 +3757,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="5"/>
@@ -3753,7 +3768,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="5"/>
@@ -3764,7 +3779,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="5"/>
@@ -3775,7 +3790,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="5"/>
@@ -3786,7 +3801,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="5"/>
@@ -3797,7 +3812,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="5"/>
@@ -3808,7 +3823,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="5"/>
@@ -3819,7 +3834,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="5"/>
@@ -3830,7 +3845,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="5"/>
@@ -3841,7 +3856,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="5"/>
@@ -3852,7 +3867,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="5"/>
@@ -3863,7 +3878,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="5"/>
@@ -3874,7 +3889,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="5"/>
@@ -3885,7 +3900,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="5"/>
@@ -3896,7 +3911,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3918,16 +3933,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3950,7 +3965,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3969,7 +3984,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3988,7 +4003,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4007,7 +4022,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4026,7 +4041,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4045,7 +4060,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4064,7 +4079,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4083,7 +4098,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4102,7 +4117,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4121,7 +4136,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4140,7 +4155,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4159,7 +4174,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4178,7 +4193,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4197,7 +4212,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4216,7 +4231,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="300" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4230,7 +4245,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4244,7 +4259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4258,7 +4273,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4272,7 +4287,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4286,7 +4301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4300,7 +4315,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4314,7 +4329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4328,7 +4343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4342,7 +4357,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4356,7 +4371,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4370,7 +4385,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4384,7 +4399,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4398,7 +4413,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4412,7 +4427,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4426,7 +4441,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4448,21 +4463,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="5" max="5" width="48.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4502,7 +4517,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4522,7 +4537,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4542,7 +4557,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4562,7 +4577,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4582,7 +4597,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4602,7 +4617,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4622,7 +4637,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4642,7 +4657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4662,7 +4677,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4682,7 +4697,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4702,7 +4717,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4714,6 +4729,32 @@
       </c>
       <c r="D13" s="7" t="s">
         <v>198</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4725,20 +4766,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.9140625" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4758,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4773,7 +4814,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4788,7 +4829,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4803,7 +4844,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4818,7 +4859,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4833,7 +4874,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4848,7 +4889,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4863,7 +4904,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4878,7 +4919,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4893,7 +4934,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4908,1431 +4949,1431 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E249" s="2"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E250" s="2"/>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E251" s="2"/>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E252" s="2"/>
     </row>
   </sheetData>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\FYP-GIT\Ulink\test cases\iteration 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\FYP-GIT\Ulink\Test Cases\Iteration 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1425" windowWidth="25515" windowHeight="15540" tabRatio="674" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="4875" yWindow="1425" windowWidth="25515" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
-    <sheet name="Login &amp; Account Management" sheetId="21" state="hidden" r:id="rId2"/>
-    <sheet name="Screenings" sheetId="23" state="hidden" r:id="rId3"/>
-    <sheet name="Bootstrap" sheetId="22" r:id="rId4"/>
-    <sheet name="Clients" sheetId="24" r:id="rId5"/>
+    <sheet name="7-Bootstrap" sheetId="22" r:id="rId2"/>
+    <sheet name="7-Clients" sheetId="24" r:id="rId3"/>
+    <sheet name="6-Screenings" sheetId="23" r:id="rId4"/>
+    <sheet name="3-Login &amp; Account Management" sheetId="21" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="197">
   <si>
     <t>No</t>
   </si>
@@ -600,50 +600,6 @@
     <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
   </si>
   <si>
-    <t>View Screenings with Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The screening table should show no result  / user not able to select any age in the drop down list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to male, age group between 20 - 30 years old</t>
-  </si>
-  <si>
-    <t>View Clients Base on Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-Illness: Cancers, Click 'View Client List' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 Names should shown. 
-</t>
-  </si>
-  <si>
-    <t>6 Names should shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant
-Illness: Chicken Pox, Click 'View Client List' 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delete Screening updated from Test Case 4 
 Age : 1
 Common illness:  Chicken Pox  
@@ -747,15 +703,6 @@
   </si>
   <si>
     <t>Verify that logged in user can access the view screenings tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 0 - 2
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
   </si>
   <si>
     <t>Age : 0
@@ -942,6 +889,21 @@
   </si>
   <si>
     <t>Database updated on with new records.</t>
+  </si>
+  <si>
+    <t>Current Iteration: 7</t>
+  </si>
+  <si>
+    <t>Upload File with correct headers not in sequence</t>
+  </si>
+  <si>
+    <t>Upload Testing 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be uploaded. </t>
+  </si>
+  <si>
+    <t>Database uploaded wrong sequence. Data uploaded to wrong columns.</t>
   </si>
 </sst>
 </file>
@@ -1071,14 +1033,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1115,14 +1077,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1159,14 +1121,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1203,14 +1165,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1247,14 +1209,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1291,14 +1253,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1335,14 +1297,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1379,14 +1341,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1423,14 +1385,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1467,14 +1429,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1511,14 +1473,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>208429</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3707836</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1555,14 +1517,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>230841</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2308012</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2127,6 +2089,2407 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="5" max="5" width="48.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F253"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E251" s="2"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
@@ -3923,2460 +6286,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
-    <col min="5" max="5" width="48.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F252"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="330.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E245" s="2"/>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E246" s="2"/>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E248" s="2"/>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E249" s="2"/>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E252" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\FYP-GIT\Ulink\Test Cases\Iteration 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shu Yan\Desktop\Ulink\Test Cases\Iteration 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1425" windowWidth="25515" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="236">
   <si>
     <t>No</t>
   </si>
@@ -445,171 +445,20 @@
 Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/createaccount.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Screening (Type : Male and Female) </t>
-  </si>
-  <si>
-    <t>Age : 9
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: Male and Female
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>Success Message shown, screening added into the table</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Screening (Type : Male) </t>
   </si>
   <si>
-    <t>Age : 20
-Common illness: Cancers
-Recommended screening:  - 
-Demographic affected: Male
-Regularity : 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Screening (Type : Female) </t>
   </si>
   <si>
-    <t>Age : 21
-Common illness:  Cancer
-Recommended screening:  - 
-Demographic affected: Female
-Regularity : 1 Year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Screening (Type : Infant) </t>
-  </si>
-  <si>
-    <t>Age : 1
-Common illness:  Chicken Pox
-Recommended screening:  - 
-Demographic affected: Infant
-Regularity : 1 Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Screenings </t>
   </si>
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Edit Screening (Type: All) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Age : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  Body Checkup
-Demographic affected: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Infant, Female, Male</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Regularity : 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Success Message shown, screening details updated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that screening - Hand Foot Mouth Disease from Test Case 7 has been updated  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening updated from Test Case 7 Age : 0
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: All
-Regularity : 0
-</t>
-  </si>
-  <si>
-    <t>Redirect back to View Screening webpage, 'Hand Foot Mouth Disease' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
-  </si>
-  <si>
     <t>Add Screening : Wrong Age Group</t>
-  </si>
-  <si>
-    <t>Age : 9
-Common illness:  Fever
-Recommended screening:  - 
-Demographic affected: Infant, Female, Male
-Regularity : 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening updated from Test Case 4 
-Age : 1
-Common illness:  Chicken Pox  
-Recommended screening:  - 
-Demographic affected: Infant
-Regularity : 1 
-</t>
-  </si>
-  <si>
-    <t>Redirect back to View Screening webpage, 'Chicken Pox' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
   </si>
   <si>
     <t>Add Screenings (Type: Men and Female)</t>
@@ -642,9 +491,6 @@
     <t>Add Screenings (Type: Infant)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sort Screenings (By Starting Age) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on Starting Age Header to sort the age (ascending to descending order) </t>
   </si>
   <si>
@@ -657,33 +503,15 @@
     <t xml:space="preserve">Age are sorted in descending order </t>
   </si>
   <si>
-    <t xml:space="preserve">Sort Screenings (By conditionName)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Condition Name Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
     <t>Condition names are sorted in alphatical order (A - Z)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sort Screenings (By screening)  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on Screening Header to sort the names (ascending to descending order) </t>
   </si>
   <si>
     <t>Screenings are sorted in alphatical order (A - Z)</t>
   </si>
   <si>
-    <t>Sort Screenings (By type)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Type Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Type are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
     <t>Display Client Profile</t>
   </si>
   <si>
@@ -699,40 +527,10 @@
     <t>Verify that logged in user can access the link</t>
   </si>
   <si>
-    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
-  </si>
-  <si>
-    <t>Verify that logged in user can access the view screenings tab</t>
-  </si>
-  <si>
-    <t>Age : 0
-Common illness:  Hepatitis B
-Recommended screening:Hepatitis B-2nd Dose
-Demographic affected: Infant
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>Age : 1 month
-Common illness:  Hepatitis B
-Recommended screening: Hepatitis B-1st Dose
-Demographic affected: Infant
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>Value specific validation</t>
-  </si>
-  <si>
     <t>Access add screenings page, click 'Add'</t>
   </si>
   <si>
     <t>Error message show to input empty fields</t>
-  </si>
-  <si>
-    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
-Remove all values and click 'Update'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
   </si>
   <si>
     <t>Page redirect to upload page with no message</t>
@@ -904,6 +702,395 @@
   </si>
   <si>
     <t>Database uploaded wrong sequence. Data uploaded to wrong columns.</t>
+  </si>
+  <si>
+    <t>Current Iteration: 6</t>
+  </si>
+  <si>
+    <t>View Screening Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreeningsadult.html 
+</t>
+  </si>
+  <si>
+    <t>Add Adult Screening - Value specific validation</t>
+  </si>
+  <si>
+    <t>Access add screenings adult page, click 'Add'</t>
+  </si>
+  <si>
+    <t>Access add screenings adult page.
+Age : A
+Common Illness: Test
+Screening: - 
+Gender: Female
+Regularity: - 
+ Click 'Add' Button</t>
+  </si>
+  <si>
+    <t>Error Message show to input a number for age</t>
+  </si>
+  <si>
+    <t>Access add screenings adult page.
+Age : 12
+Common Illness: Test
+Screening: - 
+Gender: [uncheck]
+Regularity: - 
+ Click 'Add' Button</t>
+  </si>
+  <si>
+    <t>Error Message show to input all field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Adult Screening (Type : Male and Female) </t>
+  </si>
+  <si>
+    <t>Age : 9 Years Old
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: Male and Female
+Regularity : 0 Year</t>
+  </si>
+  <si>
+    <t>Success Message shown, redirect to viewscreeningsadult page, screening added into the table</t>
+  </si>
+  <si>
+    <t>Age : 20 Years Old
+Common illness: Cancers
+Recommended screening:  - 
+Demographic affected: Male
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t>Age : 21 Years Old
+Common illness:  Cancer
+Recommended screening:  - 
+Demographic affected: Female
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t>Add Infant Screening - Value specific validation</t>
+  </si>
+  <si>
+    <t>Access add screenings page.
+Age : A
+Common Illness: Test
+Screening: - 
+Regularity: - 
+ Click 'Add' Button</t>
+  </si>
+  <si>
+    <t>Age : 1 month 
+Common illness:  Chicken Pox
+Vaccination / Screening:  - 
+Demographic affected: Infant
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t>Success Message shown, redirect to viewscreenings page, screening added into the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Screenings through URL </t>
+  </si>
+  <si>
+    <t>Access edittimelinesummary.html after login</t>
+  </si>
+  <si>
+    <t>Page should redirect to view screenings page</t>
+  </si>
+  <si>
+    <t>Edit Infant Screening - Value specific validation</t>
+  </si>
+  <si>
+    <t>Access view screenings page, select Chicken Pox
+Click 'Edit' Button
+Remove all values in all fields
+click 'Update' button</t>
+  </si>
+  <si>
+    <t>Edit Screening (Type: Infant)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Age : 1 month 
+Common illness:  Chicken Pox
+Vaccination / Screening: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Varicella</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   
+Demographic affected: Infant
+Regularity : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Success Message shown, redirect to viewscreenings page, table updated with the latest information</t>
+  </si>
+  <si>
+    <t>Edit Adult Screening - Value specific validation</t>
+  </si>
+  <si>
+    <t>Access view screenings adult page, select Hand Foot Mouth Disease for gender Female
+Click 'Edit' Button
+Remove all values in all fields
+click 'Update' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Screening (Type: Female) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Age : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 Years Old</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  Body Checkup
+Demographic affected: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Female</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regularity : 1 Year</t>
+    </r>
+  </si>
+  <si>
+    <t>Success Message shown, redirect to viewscreeningsadult page, table updated with the latest information</t>
+  </si>
+  <si>
+    <t>Delete Screening (Adult - Female)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening updated from Test Case 8
+Age : 3 Years Old
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  Body Checkup 
+Demographic affected: Female
+Regularity : 1 Year
+</t>
+  </si>
+  <si>
+    <t>Redirect back to viewscreeningsadult Page, 'Hand Foot Mouth Disease' not shown in the screening table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening (Infant) </t>
+  </si>
+  <si>
+    <t>Delete Screening updated from Test Case 7  
+Age : 1 Month
+Common illness: Chicken Pox
+Vaccination / Screening:  Varicella 
+Demographic affected: Infant
+Regularity : -</t>
+  </si>
+  <si>
+    <t>Redirect back to View Screening webpage, 'Chicken Pox' not shown in the screening table</t>
+  </si>
+  <si>
+    <t>Age : 25 Months 
+Common illness:  Fever
+Vaccination / Screening:  - 
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Message Shown (Infant cannot be above 24 Months old) </t>
+  </si>
+  <si>
+    <t>Age : 1 month
+Common illness:  Hepatitis B
+Recommended screening:Hepatitis B-2nd Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Age : 0 month
+Common illness:  Hepatitis B
+Recommended screening: Hepatitis B-1st Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infant View - Sort Screenings (By Starting Age) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infant View - Sort Screenings by Common Illness  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Illness Name Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Illness Name Header to sort the names descending to ascending order) </t>
+  </si>
+  <si>
+    <t>Condition names are sorted in alphatical order (Z - A)</t>
+  </si>
+  <si>
+    <t>Infant View - Sort Screenings (By Screening)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Screening Header to sort the names (descending to ascending order) </t>
+  </si>
+  <si>
+    <t>Screenings are sorted in alphatical order (Z - A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult View - Sort Screenings (By Starting Age) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult View - Sort Screenings By  Common Illness    </t>
+  </si>
+  <si>
+    <t>Adult View - Sort Screenings (By Screening)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult View - Filter / Sort Screening by Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender Drop Down List and select Female </t>
+  </si>
+  <si>
+    <t>Table should only display all available screenings for female only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender Drop Down List and select All </t>
+  </si>
+  <si>
+    <t>Table should only display all available screenings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender Drop Down List and select Male </t>
+  </si>
+  <si>
+    <t>Table should only display all available screenings for male only</t>
+  </si>
+  <si>
+    <t>View Patient List - Adult</t>
+  </si>
+  <si>
+    <t>Click Link to view Patients for Obesity (Gender: Male)</t>
+  </si>
+  <si>
+    <t>The Page should display all male clients who are above 9 Years Old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Link to view Patients for Breast cancer (Gender: Female) </t>
+  </si>
+  <si>
+    <t>The Page should display all female clients who are above 3 Years Old</t>
+  </si>
+  <si>
+    <t>View Patient List - Infant</t>
+  </si>
+  <si>
+    <t>Click Link to view Patients for Hepatitis B (infant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Page should display all infants with age between 0 to 24 months old </t>
+  </si>
+  <si>
+    <t>Search Adult Screenings</t>
+  </si>
+  <si>
+    <t>Search "High Blood" in the view screenings - adult search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table should display all screenings / Illness that contains "High Blood"  </t>
+  </si>
+  <si>
+    <t>Search Infant Screenings</t>
+  </si>
+  <si>
+    <t>Search "He" in the view screenings - adult search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table should display all vacincations / screenings / Illness that contains "He"  </t>
   </si>
 </sst>
 </file>
@@ -950,12 +1137,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -970,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1004,11 +1197,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,539 +1222,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B78076E-362F-4340-80F5-2861C6BC5F76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="12617450"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A9BCE6-A192-4E68-B4E1-B150F7F72B7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4521576" y="16427076"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402B30F3-2885-4CA4-9E39-69CC0A7B1DD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70524F09-7363-4BF6-AF22-E740D3689C0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C61CB9C-2F16-471D-A1CF-CBA8E677CA72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D03F83F-A5D4-4BE9-9170-8A8A1F2DF843}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455F1372-DD3A-4F81-8C0D-AA00303F7A84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA2F555-252A-4DD2-9FD8-784C2039E6E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F3BD0A-9005-4424-83C0-F1B91E34818C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8A18DF-9A8A-4684-B278-E048D22634EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1EE6D7-B08C-445D-96CD-58CF7017ACD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11625729"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F117D52-1001-4CC5-8F56-E979578507C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15458141"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1829,16 +1493,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.08203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="12.625" customWidth="1"/>
+    <col min="5" max="6" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1878,7 +1542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1898,7 +1562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1906,7 +1570,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1914,7 +1578,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1922,7 +1586,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1930,7 +1594,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1938,7 +1602,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1946,7 +1610,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1954,7 +1618,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1962,7 +1626,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1970,7 +1634,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1978,7 +1642,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1986,7 +1650,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1994,7 +1658,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2002,7 +1666,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2010,7 +1674,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2018,7 +1682,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2026,7 +1690,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2034,7 +1698,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2042,7 +1706,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2050,7 +1714,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2058,7 +1722,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2066,7 +1730,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2074,7 +1738,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2091,24 +1755,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
-    <col min="5" max="5" width="48.125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+    <col min="5" max="5" width="48.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2142,13 +1806,13 @@
         <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2162,13 +1826,13 @@
         <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2182,13 +1846,13 @@
         <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2202,13 +1866,13 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -2222,13 +1886,13 @@
         <v>56</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -2241,14 +1905,14 @@
       <c r="D8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>162</v>
+      <c r="E8" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -2262,13 +1926,13 @@
         <v>62</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2281,14 +1945,14 @@
       <c r="D10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>163</v>
+      <c r="E10" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -2301,14 +1965,14 @@
       <c r="D11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>163</v>
+      <c r="E11" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -2321,14 +1985,14 @@
       <c r="D12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>163</v>
+      <c r="E12" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -2341,71 +2005,71 @@
       <c r="D13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>163</v>
+      <c r="E13" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2417,25 +2081,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="37.08203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2455,1581 +2119,1581 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E249" s="2"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E250" s="2"/>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E251" s="2"/>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E253" s="2"/>
     </row>
   </sheetData>
@@ -4039,452 +3703,808 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>106</v>
+    <row r="4" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
+    <row r="5" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
+    <row r="6" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
+    <row r="7" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
+    <row r="8" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="2"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
+    <row r="9" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="E9" s="15"/>
       <c r="F9" s="2"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
+    <row r="10" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
+    <row r="11" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
+    <row r="12" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+        <v>169</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="15">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="15">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="15">
+        <v>25</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="15">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="15">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>29</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>157</v>
+      <c r="D31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
+        <v>31</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="15">
+        <v>32</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
+        <v>33</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
+        <v>34</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
+        <v>35</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="15">
+        <v>36</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="15">
+        <v>37</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="15">
+        <v>38</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
+        <v>39</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A42" s="15">
+        <v>40</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A43" s="15">
+        <v>41</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A44" s="15">
+        <v>42</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A45" s="15">
+        <v>43</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A46" s="15">
+        <v>44</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4492,21 +4512,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection sqref="A1:G28"/>
+    <sheetView topLeftCell="A19" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="45.625" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.58203125" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4529,7 +4549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4547,7 +4567,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4566,7 +4586,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4588,7 +4608,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4610,7 +4630,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4632,7 +4652,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4654,7 +4674,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4676,7 +4696,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4698,7 +4718,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4720,7 +4740,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4742,7 +4762,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4764,7 +4784,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4786,7 +4806,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -4808,7 +4828,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -4830,7 +4850,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="93" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -4852,7 +4872,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="124" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -4874,7 +4894,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -4896,7 +4916,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -4918,7 +4938,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -4940,7 +4960,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -4962,7 +4982,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -4984,7 +5004,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -5006,7 +5026,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -5028,7 +5048,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -5050,7 +5070,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -5072,7 +5092,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -5094,7 +5114,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="93" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -5116,7 +5136,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="2"/>
@@ -5128,7 +5148,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
@@ -5140,7 +5160,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="2"/>
@@ -5152,7 +5172,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="2"/>
@@ -5164,7 +5184,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
@@ -5176,7 +5196,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="2"/>
@@ -5188,7 +5208,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="2"/>
@@ -5200,7 +5220,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="2"/>
@@ -5212,7 +5232,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
@@ -5224,7 +5244,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
@@ -5236,7 +5256,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
@@ -5248,7 +5268,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
@@ -5260,7 +5280,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -5272,7 +5292,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="2"/>
@@ -5284,7 +5304,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="2"/>
@@ -5296,7 +5316,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="2"/>
@@ -5308,7 +5328,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="2"/>
@@ -5320,7 +5340,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="2"/>
@@ -5332,7 +5352,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="2"/>
@@ -5344,7 +5364,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="2"/>
@@ -5356,7 +5376,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="2"/>
@@ -5368,7 +5388,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="2"/>
@@ -5380,7 +5400,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="2"/>
@@ -5392,7 +5412,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="2"/>
@@ -5404,7 +5424,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="2"/>
@@ -5416,7 +5436,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="5"/>
@@ -5427,7 +5447,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="5"/>
@@ -5438,7 +5458,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="5"/>
@@ -5449,7 +5469,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="5"/>
@@ -5460,7 +5480,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="5"/>
@@ -5471,7 +5491,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="5"/>
@@ -5482,7 +5502,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="5"/>
@@ -5493,7 +5513,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="5"/>
@@ -5504,7 +5524,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="5"/>
@@ -5515,7 +5535,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="5"/>
@@ -5526,7 +5546,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="5"/>
@@ -5537,7 +5557,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="5"/>
@@ -5548,7 +5568,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="5"/>
@@ -5559,7 +5579,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="5"/>
@@ -5570,7 +5590,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="5"/>
@@ -5581,7 +5601,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="5"/>
@@ -5592,7 +5612,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="5"/>
@@ -5603,7 +5623,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="5"/>
@@ -5614,7 +5634,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="5"/>
@@ -5625,7 +5645,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="5"/>
@@ -5636,7 +5656,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="5"/>
@@ -5647,7 +5667,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="5"/>
@@ -5658,7 +5678,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="5"/>
@@ -5669,7 +5689,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="5"/>
@@ -5680,7 +5700,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="5"/>
@@ -5691,7 +5711,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="5"/>
@@ -5702,7 +5722,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="5"/>
@@ -5713,7 +5733,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="5"/>
@@ -5724,7 +5744,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="5"/>
@@ -5735,7 +5755,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="5"/>
@@ -5746,7 +5766,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="5"/>
@@ -5757,7 +5777,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="5"/>
@@ -5768,7 +5788,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="5"/>
@@ -5779,7 +5799,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="5"/>
@@ -5790,7 +5810,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="5"/>
@@ -5801,7 +5821,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="5"/>
@@ -5812,7 +5832,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="5"/>
@@ -5823,7 +5843,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="5"/>
@@ -5834,7 +5854,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="5"/>
@@ -5845,7 +5865,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="5"/>
@@ -5856,7 +5876,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="5"/>
@@ -5867,7 +5887,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="5"/>
@@ -5878,7 +5898,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="5"/>
@@ -5889,7 +5909,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="5"/>
@@ -5900,7 +5920,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="5"/>
@@ -5911,7 +5931,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="5"/>
@@ -5922,7 +5942,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5"/>
@@ -5933,7 +5953,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="5"/>
@@ -5944,7 +5964,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="5"/>
@@ -5955,7 +5975,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="5"/>
@@ -5966,7 +5986,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="5"/>
@@ -5977,7 +5997,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="5"/>
@@ -5988,7 +6008,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="5"/>
@@ -5999,7 +6019,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="5"/>
@@ -6010,7 +6030,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="5"/>
@@ -6021,7 +6041,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="5"/>
@@ -6032,7 +6052,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="5"/>
@@ -6043,7 +6063,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="5"/>
@@ -6054,7 +6074,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="5"/>
@@ -6065,7 +6085,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="5"/>
@@ -6076,7 +6096,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="5"/>
@@ -6087,7 +6107,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="5"/>
@@ -6098,7 +6118,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="5"/>
@@ -6109,7 +6129,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="5"/>
@@ -6120,7 +6140,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="5"/>
@@ -6131,7 +6151,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="5"/>
@@ -6142,7 +6162,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="5"/>
@@ -6153,7 +6173,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="5"/>
@@ -6164,7 +6184,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="5"/>
@@ -6175,7 +6195,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="5"/>
@@ -6186,7 +6206,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="5"/>
@@ -6197,7 +6217,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="5"/>
@@ -6208,7 +6228,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="5"/>
@@ -6219,7 +6239,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="5"/>
@@ -6230,7 +6250,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="5"/>
@@ -6241,7 +6261,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="5"/>
@@ -6252,7 +6272,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="5"/>
@@ -6263,7 +6283,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="5"/>
@@ -6274,7 +6294,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="6-Screenings" sheetId="23" r:id="rId4"/>
     <sheet name="3-Login &amp; Account Management" sheetId="21" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="239">
   <si>
     <t>No</t>
   </si>
@@ -1091,6 +1091,15 @@
   </si>
   <si>
     <t xml:space="preserve">The table should display all vacincations / screenings / Illness that contains "He"  </t>
+  </si>
+  <si>
+    <t>Search Clients</t>
+  </si>
+  <si>
+    <t>Search "Ali" in the Client List search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table should display all clients that contains "Ali"  </t>
   </si>
 </sst>
 </file>
@@ -2079,16 +2088,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
     <col min="4" max="4" width="37.08203125" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
@@ -2209,71 +2218,79 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="155" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2284,13 +2301,13 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2304,13 +2321,13 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2324,6 +2341,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2348,12 +2366,12 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3673,6 +3691,9 @@
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.35">
@@ -3695,6 +3716,9 @@
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E254" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3705,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
